--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Reln-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Reln-Itgb1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H2">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I2">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J2">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>2.1212364394745</v>
+        <v>47.7814120660965</v>
       </c>
       <c r="R2">
-        <v>8.484945757898</v>
+        <v>191.125648264386</v>
       </c>
       <c r="S2">
-        <v>0.0003713561894224462</v>
+        <v>0.004840202103287232</v>
       </c>
       <c r="T2">
-        <v>0.0002828642782833975</v>
+        <v>0.003866969442702981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H3">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I3">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J3">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>1.530753423592</v>
+        <v>28.154627888664</v>
       </c>
       <c r="R3">
-        <v>9.184520541551997</v>
+        <v>168.927767331984</v>
       </c>
       <c r="S3">
-        <v>0.0002679827424006131</v>
+        <v>0.002852031432965429</v>
       </c>
       <c r="T3">
-        <v>0.0003061861381903222</v>
+        <v>0.003417848521268008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H4">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I4">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J4">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>1.089532393773</v>
+        <v>18.399155842073</v>
       </c>
       <c r="R4">
-        <v>6.537194362637999</v>
+        <v>110.394935052438</v>
       </c>
       <c r="S4">
-        <v>0.0001907399809255074</v>
+        <v>0.001863813331475423</v>
       </c>
       <c r="T4">
-        <v>0.0002179317131950629</v>
+        <v>0.002233576939325441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H5">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I5">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J5">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>1.8032776211405</v>
+        <v>40.7842572392145</v>
       </c>
       <c r="R5">
-        <v>7.213110484562</v>
+        <v>163.137028956858</v>
       </c>
       <c r="S5">
-        <v>0.0003156924392753719</v>
+        <v>0.004131398364644028</v>
       </c>
       <c r="T5">
-        <v>0.0002404648597187373</v>
+        <v>0.003300686808276333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H6">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I6">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J6">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>1.569020297476</v>
+        <v>14.188757655737</v>
       </c>
       <c r="R6">
-        <v>9.414121784855999</v>
+        <v>85.132545934422</v>
       </c>
       <c r="S6">
-        <v>0.0002746819675328158</v>
+        <v>0.0014373048363102</v>
       </c>
       <c r="T6">
-        <v>0.0003138403992584856</v>
+        <v>0.001722453039125996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H7">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I7">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J7">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>1.026424558781667</v>
+        <v>20.449634552182</v>
       </c>
       <c r="R7">
-        <v>6.15854735269</v>
+        <v>122.697807313092</v>
       </c>
       <c r="S7">
-        <v>0.0001796919503104536</v>
+        <v>0.002071524467171586</v>
       </c>
       <c r="T7">
-        <v>0.0002053086845689328</v>
+        <v>0.002482496074572094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.797511</v>
       </c>
       <c r="I8">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J8">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>43.7507278579085</v>
+        <v>53.5809773748535</v>
       </c>
       <c r="R8">
-        <v>262.504367147451</v>
+        <v>321.485864249121</v>
       </c>
       <c r="S8">
-        <v>0.007659261023158883</v>
+        <v>0.005427691400731315</v>
       </c>
       <c r="T8">
-        <v>0.008751158873383142</v>
+        <v>0.006504495993089383</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.797511</v>
       </c>
       <c r="I9">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J9">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>31.57195266253599</v>
+        <v>31.571952662536</v>
       </c>
       <c r="R9">
-        <v>284.1475739628239</v>
+        <v>284.147573962824</v>
       </c>
       <c r="S9">
-        <v>0.005527172650442377</v>
+        <v>0.003198202503322875</v>
       </c>
       <c r="T9">
-        <v>0.009472682646221664</v>
+        <v>0.005749045173740672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.797511</v>
       </c>
       <c r="I10">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J10">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>22.471721853009</v>
+        <v>20.63239051049367</v>
       </c>
       <c r="R10">
-        <v>202.245496677081</v>
+        <v>185.691514594443</v>
       </c>
       <c r="S10">
-        <v>0.003934032454751658</v>
+        <v>0.002090037435615984</v>
       </c>
       <c r="T10">
-        <v>0.006742297250442541</v>
+        <v>0.00375702277128521</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.797511</v>
       </c>
       <c r="I11">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J11">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>37.1927933098865</v>
+        <v>45.73452876113549</v>
       </c>
       <c r="R11">
-        <v>223.156759859319</v>
+        <v>274.407172566813</v>
       </c>
       <c r="S11">
-        <v>0.006511190238160218</v>
+        <v>0.004632855177998568</v>
       </c>
       <c r="T11">
-        <v>0.007439420076776707</v>
+        <v>0.005551971495246551</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.797511</v>
       </c>
       <c r="I12">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J12">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>32.361211018708</v>
+        <v>15.91094674802966</v>
       </c>
       <c r="R12">
-        <v>291.250899168372</v>
+        <v>143.198520732267</v>
       </c>
       <c r="S12">
-        <v>0.005665344883468163</v>
+        <v>0.001611760611188564</v>
       </c>
       <c r="T12">
-        <v>0.009709487572854145</v>
+        <v>0.002897278878792582</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.797511</v>
       </c>
       <c r="I13">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J13">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>21.17011602396167</v>
+        <v>22.93175021175133</v>
       </c>
       <c r="R13">
-        <v>190.531044215655</v>
+        <v>206.385751905762</v>
       </c>
       <c r="S13">
-        <v>0.003706165644710999</v>
+        <v>0.002322959929552452</v>
       </c>
       <c r="T13">
-        <v>0.006351770282382428</v>
+        <v>0.004175721067665695</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H14">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I14">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J14">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>1266.752567656664</v>
+        <v>2674.583703313206</v>
       </c>
       <c r="R14">
-        <v>5067.010270626656</v>
+        <v>10698.33481325282</v>
       </c>
       <c r="S14">
-        <v>0.2217651920889196</v>
+        <v>0.2709322539126022</v>
       </c>
       <c r="T14">
-        <v>0.1689199016883806</v>
+        <v>0.2164551654178117</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H15">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I15">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J15">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>914.1299827306239</v>
+        <v>1575.966587586452</v>
       </c>
       <c r="R15">
-        <v>5484.779896383743</v>
+        <v>9455.799525518712</v>
       </c>
       <c r="S15">
-        <v>0.1600329980696298</v>
+        <v>0.1596436032780794</v>
       </c>
       <c r="T15">
-        <v>0.1828471685266519</v>
+        <v>0.1913154417188691</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H16">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I16">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J16">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>650.6431492846559</v>
+        <v>1029.900127310085</v>
       </c>
       <c r="R16">
-        <v>3903.858895707936</v>
+        <v>6179.40076386051</v>
       </c>
       <c r="S16">
-        <v>0.1139054355732391</v>
+        <v>0.1043276987186223</v>
       </c>
       <c r="T16">
-        <v>0.1301436992719454</v>
+        <v>0.1250253649631006</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H17">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I17">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J17">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>1076.875031122616</v>
+        <v>2282.915155643454</v>
       </c>
       <c r="R17">
-        <v>4307.500124490464</v>
+        <v>9131.660622573818</v>
       </c>
       <c r="S17">
-        <v>0.188524108204054</v>
+        <v>0.2312566803736669</v>
       </c>
       <c r="T17">
-        <v>0.1435999650069051</v>
+        <v>0.1847572678460182</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H18">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I18">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J18">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>936.9820608142719</v>
+        <v>794.2214002340368</v>
       </c>
       <c r="R18">
-        <v>5621.892364885632</v>
+        <v>4765.328401404221</v>
       </c>
       <c r="S18">
-        <v>0.1640336179343489</v>
+        <v>0.0804537146489268</v>
       </c>
       <c r="T18">
-        <v>0.1874181134157621</v>
+        <v>0.09641499966129083</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H19">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I19">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J19">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>612.9566328139467</v>
+        <v>1144.676495460568</v>
       </c>
       <c r="R19">
-        <v>3677.739796883681</v>
+        <v>6868.058972763405</v>
       </c>
       <c r="S19">
-        <v>0.1073078112402176</v>
+        <v>0.1159544128425404</v>
       </c>
       <c r="T19">
-        <v>0.1226055231279814</v>
+        <v>0.1389587133884793</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H20">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I20">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J20">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>13.02788187368983</v>
+        <v>2.644814623671</v>
       </c>
       <c r="R20">
-        <v>78.167291242139</v>
+        <v>15.868887742026</v>
       </c>
       <c r="S20">
-        <v>0.002280738006772005</v>
+        <v>0.0002679166803732977</v>
       </c>
       <c r="T20">
-        <v>0.002605878110887694</v>
+        <v>0.0003210689122331311</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H21">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I21">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J21">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>9.401344616370665</v>
+        <v>1.558425512016</v>
       </c>
       <c r="R21">
-        <v>84.612101547336</v>
+        <v>14.025829608144</v>
       </c>
       <c r="S21">
-        <v>0.00164585495855782</v>
+        <v>0.0001578667124914996</v>
       </c>
       <c r="T21">
-        <v>0.00282072999888663</v>
+        <v>0.0002837790479497779</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H22">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I22">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J22">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>6.691521538800999</v>
+        <v>1.018436968062</v>
       </c>
       <c r="R22">
-        <v>60.22369384920901</v>
+        <v>9.165932712558</v>
       </c>
       <c r="S22">
-        <v>0.001171457313218211</v>
+        <v>0.0001031664938671176</v>
       </c>
       <c r="T22">
-        <v>0.002007688933115461</v>
+        <v>0.0001854506814506804</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H23">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I23">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J23">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>11.07509158173183</v>
+        <v>2.257505487963</v>
       </c>
       <c r="R23">
-        <v>66.45054949039101</v>
+        <v>13.545032927778</v>
       </c>
       <c r="S23">
-        <v>0.001938870995595108</v>
+        <v>0.0002286827102536412</v>
       </c>
       <c r="T23">
-        <v>0.002215274824313214</v>
+        <v>0.0002740512793953635</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H24">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I24">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J24">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>9.636366183678666</v>
+        <v>0.7853814300779999</v>
       </c>
       <c r="R24">
-        <v>86.727295653108</v>
+        <v>7.068432870701999</v>
       </c>
       <c r="S24">
-        <v>0.001686999223309943</v>
+        <v>7.955823583630699E-05</v>
       </c>
       <c r="T24">
-        <v>0.002891244634009851</v>
+        <v>0.0001430127989990719</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H25">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I25">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J25">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>6.303935598699446</v>
+        <v>1.131935833908</v>
       </c>
       <c r="R25">
-        <v>56.73542038829501</v>
+        <v>10.187422505172</v>
       </c>
       <c r="S25">
-        <v>0.001103604227578458</v>
+        <v>0.0001146637984764622</v>
       </c>
       <c r="T25">
-        <v>0.001891399685885081</v>
+        <v>0.0002061180793114173</v>
       </c>
     </row>
   </sheetData>
